--- a/supplementary_data/pVACvector_results.xlsx
+++ b/supplementary_data/pVACvector_results.xlsx
@@ -10,7 +10,7 @@
     <sheet name="result_summary" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result_summary!$A$1:$A$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">result_summary!$A$1:$A$101</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,15 +30,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>TCGA_ID</t>
   </si>
   <si>
-    <t>linker</t>
-  </si>
-  <si>
     <t>sequence</t>
+  </si>
+  <si>
+    <t>Linker numbers</t>
+  </si>
+  <si>
+    <t>domain numbers</t>
+  </si>
+  <si>
+    <t>Looseness</t>
   </si>
   <si>
     <t>TCGA-05-4250-01A</t>
@@ -651,7 +657,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,6 +675,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
@@ -1137,145 +1149,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,8 +1295,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1819,1147 +1834,1740 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:C$1048576"/>
+      <selection activeCell="A1" sqref="A$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="18.1083333333333" style="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="2"/>
+    <col min="2" max="2" width="18.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:3">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2">
+        <v>-0.4908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2">
+        <v>-0.53684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="2">
+        <v>-0.65325</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2">
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-0.66972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>-0.79167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-0.19838</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>-0.73259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>15</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>-0.47531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="2">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>-0.54335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>-0.24103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="2">
+        <v>14</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>-0.74312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2">
+        <v>14</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>-0.71963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="2">
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-0.02778</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="2">
+        <v>11</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>-0.3617</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>-0.59322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>-0.5322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="2">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>-0.74405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>-0.69322</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>-0.29642</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="2">
+        <v>24</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>-0.59104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>9</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>-0.37572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.65868</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>-0.79042</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-0.38095</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="2">
+        <v>24</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-0.85673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2">
+        <v>22</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.48476</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="2">
+        <v>16</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-0.87907</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="2">
+        <v>24</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>-0.55376</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>-0.28025</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="2">
+        <v>19</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>-0.53582</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>-0.42045</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>-0.36216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>-0.84444</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="2">
+        <v>18</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>-0.65714</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="2">
+        <v>19</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>-0.49555</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>-0.5794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>-0.6036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>-0.49091</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>-0.60117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="2">
+        <v>19</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>-0.58571</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="2">
+        <v>6</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>-0.48538</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2">
+        <v>16</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>-0.72277</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="2">
+        <v>15</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0</v>
+      </c>
+      <c r="E46" s="2">
+        <v>-0.71304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="2">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>-0.77976</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="2">
+        <v>19</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0</v>
+      </c>
+      <c r="E48" s="2">
+        <v>-0.63871</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="2">
+        <v>6</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0</v>
+      </c>
+      <c r="E49" s="2">
+        <v>-0.29851</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>-0.74725</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="2">
+        <v>15</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>-0.35294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="2">
+        <v>5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>-0.52055</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="2">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>-0.74667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="2">
+        <v>11</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.01508</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0</v>
+      </c>
+      <c r="E55" s="2">
+        <v>-0.34035</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="2">
+        <v>19</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0</v>
+      </c>
+      <c r="E56" s="2">
+        <v>-0.50427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="2">
+        <v>23</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0</v>
+      </c>
+      <c r="E57" s="2">
+        <v>-0.72881</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="2">
+        <v>26</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0</v>
+      </c>
+      <c r="E58" s="2">
+        <v>-0.64088</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="2">
+        <v>16</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>-0.68276</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0</v>
+      </c>
+      <c r="E60" s="2">
+        <v>-0.64122</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="2">
+        <v>24</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0</v>
+      </c>
+      <c r="E61" s="2">
+        <v>-0.44474</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="2">
+        <v>19</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0</v>
+      </c>
+      <c r="E62" s="2">
+        <v>-0.2568</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0</v>
+      </c>
+      <c r="E63" s="2">
+        <v>-0.50327</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="2">
+        <v>17</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0</v>
+      </c>
+      <c r="E64" s="2">
+        <v>-0.68932</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0</v>
+      </c>
+      <c r="E65" s="2">
+        <v>-0.13171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="2">
+        <v>17</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0</v>
+      </c>
+      <c r="E66" s="2">
+        <v>-0.67925</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="2">
+        <v>23</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0</v>
+      </c>
+      <c r="E67" s="2">
+        <v>-0.76282</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="2">
+        <v>18</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0</v>
+      </c>
+      <c r="E68" s="2">
+        <v>-0.37391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="2">
+        <v>18</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0</v>
+      </c>
+      <c r="E69" s="2">
+        <v>-0.41718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="2">
+        <v>15</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0</v>
+      </c>
+      <c r="E70" s="2">
+        <v>-0.29814</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0</v>
+      </c>
+      <c r="E71" s="2">
+        <v>-0.64198</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="2">
+        <v>17</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0</v>
+      </c>
+      <c r="E72" s="2">
+        <v>-0.88417</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="2">
+        <v>27</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0</v>
+      </c>
+      <c r="E73" s="2">
+        <v>-0.50526</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="2">
+        <v>25</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0</v>
+      </c>
+      <c r="E74" s="2">
+        <v>-0.57955</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="2">
+        <v>26</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0</v>
+      </c>
+      <c r="E75" s="2">
+        <v>-0.51515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="2">
+        <v>6</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0</v>
+      </c>
+      <c r="E76" s="2">
+        <v>-0.02762</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="2">
+        <v>12</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0</v>
+      </c>
+      <c r="E77" s="2">
+        <v>-0.22222</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="2">
+        <v>9</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0</v>
+      </c>
+      <c r="E78" s="2">
+        <v>-0.14912</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="2">
+        <v>16</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0</v>
+      </c>
+      <c r="E79" s="2">
+        <v>-0.62238</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="2">
+        <v>22</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0</v>
+      </c>
+      <c r="E80" s="2">
+        <v>-0.54545</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="2">
+        <v>18</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0</v>
+      </c>
+      <c r="E81" s="2">
+        <v>-0.65657</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C82" s="2">
+        <v>15</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0</v>
+      </c>
+      <c r="E82" s="2">
+        <v>-0.63455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C83" s="2">
+        <v>10</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0</v>
+      </c>
+      <c r="E83" s="2">
+        <v>-0.31561</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C84" s="2">
+        <v>12</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0</v>
+      </c>
+      <c r="E84" s="2">
+        <v>-0.40925</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C85" s="2">
+        <v>0</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0</v>
+      </c>
+      <c r="E85" s="2">
+        <v>-0.10938</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C86" s="2">
+        <v>11</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0</v>
+      </c>
+      <c r="E86" s="2">
+        <v>-0.43415</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C87" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0</v>
+      </c>
+      <c r="E87" s="2">
+        <v>-0.57322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C88" s="2">
+        <v>16</v>
+      </c>
+      <c r="D88" s="2">
+        <v>0</v>
+      </c>
+      <c r="E88" s="2">
+        <v>-0.46825</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C89" s="2">
+        <v>4</v>
+      </c>
+      <c r="D89" s="2">
+        <v>0</v>
+      </c>
+      <c r="E89" s="2">
+        <v>-0.4963</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C90" s="2">
+        <v>15</v>
+      </c>
+      <c r="D90" s="2">
+        <v>0</v>
+      </c>
+      <c r="E90" s="2">
+        <v>-0.46392</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="2">
+        <v>18</v>
+      </c>
+      <c r="D91" s="2">
+        <v>0</v>
+      </c>
+      <c r="E91" s="2">
+        <v>-0.62264</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C92" s="2">
+        <v>20</v>
+      </c>
+      <c r="D92" s="2">
+        <v>0</v>
+      </c>
+      <c r="E92" s="2">
+        <v>-0.7193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C93" s="2">
+        <v>12</v>
+      </c>
+      <c r="D93" s="2">
+        <v>0</v>
+      </c>
+      <c r="E93" s="2">
+        <v>-0.42077</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="2">
+        <v>23</v>
+      </c>
+      <c r="D94" s="2">
+        <v>0</v>
+      </c>
+      <c r="E94" s="2">
+        <v>-0.43251</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C95" s="2">
+        <v>21</v>
+      </c>
+      <c r="D95" s="2">
+        <v>0</v>
+      </c>
+      <c r="E95" s="2">
+        <v>-0.58824</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C96" s="2">
+        <v>14</v>
+      </c>
+      <c r="D96" s="2">
+        <v>0</v>
+      </c>
+      <c r="E96" s="2">
+        <v>-0.82278</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C97" s="2">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2">
+        <v>0</v>
+      </c>
+      <c r="E97" s="2">
+        <v>-0.5641</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="2">
         <v>13</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>23</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D98" s="2">
+        <v>0</v>
+      </c>
+      <c r="E98" s="2">
+        <v>-0.71552</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C99" s="2">
+        <v>11</v>
+      </c>
+      <c r="D99" s="2">
+        <v>0</v>
+      </c>
+      <c r="E99" s="2">
+        <v>-0.71545</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C100" s="2">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2">
+        <v>0</v>
+      </c>
+      <c r="E100" s="2">
+        <v>-0.54802</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C101" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2">
-        <v>19</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>11</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="2">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>20</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="2">
-        <v>15</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="2">
-        <v>21</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="2">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="2">
-        <v>14</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="2">
-        <v>11</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2">
-        <v>8</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" s="2">
-        <v>18</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2">
-        <v>23</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="2">
-        <v>22</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="2">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="2">
-        <v>24</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="2">
-        <v>9</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="2">
-        <v>0</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="2">
-        <v>16</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="2">
-        <v>21</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2">
-        <v>10</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="2">
-        <v>24</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="2">
-        <v>22</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="2">
-        <v>16</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="2">
-        <v>24</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B32" s="2">
-        <v>12</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="2">
-        <v>19</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="2">
-        <v>8</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="2">
-        <v>6</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="2">
-        <v>10</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="2">
-        <v>18</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="2">
-        <v>19</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="2">
-        <v>17</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="2">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B41" s="2">
-        <v>10</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B42" s="2">
-        <v>16</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B43" s="2">
-        <v>19</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B44" s="2">
-        <v>6</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B45" s="2">
-        <v>16</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B46" s="2">
-        <v>15</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="2">
-        <v>21</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B48" s="2">
-        <v>19</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B49" s="2">
-        <v>6</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B50" s="2">
-        <v>8</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B51" s="2">
-        <v>15</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" s="2">
-        <v>5</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B53" s="2">
-        <v>7</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B54" s="2">
-        <v>11</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55" s="2">
-        <v>14</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B56" s="2">
-        <v>19</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B57" s="2">
-        <v>23</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B58" s="2">
-        <v>26</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B59" s="2">
-        <v>16</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B60" s="2">
-        <v>14</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="2">
-        <v>24</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B62" s="2">
-        <v>19</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" s="2">
-        <v>17</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="2">
-        <v>17</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="2">
-        <v>4</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B66" s="2">
-        <v>17</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B67" s="2">
-        <v>23</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B68" s="2">
-        <v>18</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B69" s="2">
-        <v>18</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="2">
-        <v>15</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B71" s="2">
-        <v>14</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="2">
-        <v>17</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="2">
-        <v>27</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="2">
-        <v>25</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B75" s="2">
-        <v>26</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="2">
-        <v>6</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="2">
-        <v>12</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B78" s="2">
-        <v>9</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B79" s="2">
-        <v>16</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="2">
-        <v>22</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B81" s="2">
-        <v>18</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B82" s="2">
-        <v>15</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B83" s="2">
-        <v>10</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B84" s="2">
-        <v>12</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B85" s="2">
-        <v>0</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B86" s="2">
-        <v>11</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B87" s="2">
-        <v>14</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B88" s="2">
-        <v>16</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B89" s="2">
-        <v>4</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B90" s="2">
-        <v>15</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B91" s="2">
-        <v>18</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B92" s="2">
-        <v>20</v>
-      </c>
-      <c r="C92" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B93" s="2">
-        <v>12</v>
-      </c>
-      <c r="C93" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B94" s="2">
-        <v>23</v>
-      </c>
-      <c r="C94" s="5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="2">
-        <v>21</v>
-      </c>
-      <c r="C95" s="5" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="2">
-        <v>14</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B97" s="2">
-        <v>17</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B98" s="2">
-        <v>13</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B99" s="2">
-        <v>11</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B100" s="2">
-        <v>9</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B101" s="2">
-        <v>8</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="102" spans="2:3">
-      <c r="B102" s="2">
-        <v>16</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="2:3">
-      <c r="B103" s="2">
-        <v>16</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>118</v>
+      <c r="D101" s="2">
+        <v>0</v>
+      </c>
+      <c r="E101" s="2">
+        <v>0.07692</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A103">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:A101" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
